--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,15 +29,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Annie</t>
   </si>
   <si>
-    <t>Hi!</t>
+    <t>全名制作人</t>
   </si>
   <si>
     <t>Bella</t>
+  </si>
+  <si>
+    <t>你们好啊！</t>
+  </si>
+  <si>
+    <t>フルネームプロデューサーです</t>
+  </si>
+  <si>
+    <t>こんにちはございます</t>
+  </si>
+  <si>
+    <t>Hi!</t>
   </si>
   <si>
     <t>Hello</t>
@@ -977,44 +989,109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,7 +29,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Vocal</t>
+  </si>
+  <si>
+    <t>BgImg</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
   <si>
     <t>Annie</t>
   </si>
@@ -43,12 +61,18 @@
     <t>你们好啊！</t>
   </si>
   <si>
+    <t>中文</t>
+  </si>
+  <si>
     <t>フルネームプロデューサーです</t>
   </si>
   <si>
     <t>こんにちはございます</t>
   </si>
   <si>
+    <t>日语</t>
+  </si>
+  <si>
     <t>Hi!</t>
   </si>
   <si>
@@ -56,6 +80,9 @@
   </si>
   <si>
     <t>How are you?</t>
+  </si>
+  <si>
+    <t>英语</t>
   </si>
   <si>
     <t>I'm fine.</t>
@@ -989,18 +1016,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,90 +1035,126 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,32 +29,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Dialogue</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Vocal</t>
-  </si>
-  <si>
-    <t>BgImg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+  <si>
+    <t>Name(说话人）</t>
+  </si>
+  <si>
+    <t>Dialogue（文本内容）</t>
+  </si>
+  <si>
+    <t>Avatar（左下角任务头像）</t>
+  </si>
+  <si>
+    <t>Vocal（人物语言）</t>
+  </si>
+  <si>
+    <t>BgImg（背景图片）</t>
   </si>
   <si>
     <t>BGM</t>
   </si>
   <si>
+    <t>CharacterNum（人物编号）</t>
+  </si>
+  <si>
+    <t>Action（出现位置）</t>
+  </si>
+  <si>
+    <t>CharacterImg（立绘）</t>
+  </si>
+  <si>
     <t>Annie</t>
   </si>
   <si>
     <t>全名制作人</t>
   </si>
   <si>
+    <t>appearAt(x,y)</t>
+  </si>
+  <si>
     <t>Bella</t>
   </si>
   <si>
@@ -67,6 +79,9 @@
     <t>フルネームプロデューサーです</t>
   </si>
   <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
     <t>こんにちはございます</t>
   </si>
   <si>
@@ -83,6 +98,9 @@
   </si>
   <si>
     <t>英语</t>
+  </si>
+  <si>
+    <t>disappear</t>
   </si>
   <si>
     <t>I'm fine.</t>
@@ -1016,18 +1034,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="6.93518518518519" customWidth="1"/>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.8240740740741" customWidth="1"/>
+    <col min="8" max="8" width="14.7222222222222" customWidth="1"/>
+    <col min="9" max="9" width="21.9444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,16 +1069,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2"/>
       <c r="E2">
@@ -1064,30 +1096,48 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1095,66 +1145,96 @@
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -64,7 +64,7 @@
     <t>全名制作人</t>
   </si>
   <si>
-    <t>appearAt(x,y)</t>
+    <t>appearAt(0,-1)</t>
   </si>
   <si>
     <t>Bella</t>
@@ -79,13 +79,16 @@
     <t>フルネームプロデューサーです</t>
   </si>
   <si>
-    <t>moveTo(x,y)</t>
+    <t>moveTo(540,y)</t>
   </si>
   <si>
     <t>こんにちはございます</t>
   </si>
   <si>
     <t>日语</t>
+  </si>
+  <si>
+    <t>moveTo(-540,y)</t>
   </si>
   <si>
     <t>Hi!</t>
@@ -1037,7 +1040,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1046,7 +1049,7 @@
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
     <col min="7" max="7" width="13.8240740740741" customWidth="1"/>
-    <col min="8" max="8" width="14.7222222222222" customWidth="1"/>
+    <col min="8" max="8" width="18.1296296296296" customWidth="1"/>
     <col min="9" max="9" width="21.9444444444444" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1169,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1177,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1191,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1205,19 +1208,19 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1225,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1234,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>I'm fine.</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>choice1</t>
+  </si>
+  <si>
+    <t>choice2</t>
   </si>
 </sst>
 </file>
@@ -1037,15 +1046,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.93518518518519" customWidth="1"/>
+    <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
     <col min="7" max="7" width="13.8240740740741" customWidth="1"/>
@@ -1238,6 +1247,23 @@
       </c>
       <c r="H9" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -1046,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1249,20 +1249,275 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>28</v>
       </c>
-      <c r="E10">
+      <c r="E31">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -1046,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1249,275 +1249,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E31">
+      <c r="E10">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Vocal（人物语言）</t>
   </si>
   <si>
-    <t>BgImg（背景图片）</t>
+    <t>BGbgImg（背景图片）</t>
   </si>
   <si>
     <t>BGM</t>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>CharacterImg（立绘）</t>
+  </si>
+  <si>
+    <t>LastBGImg(最后背景图片）</t>
+  </si>
+  <si>
+    <t>LastBGMusic（最后背景音乐）</t>
   </si>
   <si>
     <t>Annie</t>
@@ -128,9 +134,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -281,12 +295,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -601,55 +621,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,76 +681,82 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,60 +1069,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.0092592592593" customWidth="1"/>
     <col min="7" max="7" width="13.8240740740741" customWidth="1"/>
     <col min="8" max="8" width="18.1296296296296" customWidth="1"/>
     <col min="9" max="9" width="21.9444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" ht="87" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2"/>
       <c r="E2">
@@ -1112,44 +1142,52 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <f>IF(E2&lt;&gt;"",E2,J2)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>IF(F2&lt;&gt;"",F2,K2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1161,363 +1199,156 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="0">IF(E3&lt;&gt;"",E3,J3)</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K9" si="1">IF(F3&lt;&gt;"",F3,K3)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -67,61 +67,25 @@
     <t>Annie</t>
   </si>
   <si>
-    <t>全名制作人</t>
-  </si>
-  <si>
     <t>appearAt(0,-1)</t>
   </si>
   <si>
     <t>Bella</t>
   </si>
   <si>
-    <t>你们好啊！</t>
-  </si>
-  <si>
     <t>中文</t>
   </si>
   <si>
-    <t>フルネームプロデューサーです</t>
-  </si>
-  <si>
     <t>moveTo(540,y)</t>
   </si>
   <si>
-    <t>こんにちはございます</t>
-  </si>
-  <si>
     <t>日语</t>
   </si>
   <si>
     <t>moveTo(-540,y)</t>
   </si>
   <si>
-    <t>Hi!</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>How are you?</t>
-  </si>
-  <si>
     <t>英语</t>
-  </si>
-  <si>
-    <t>disappear</t>
-  </si>
-  <si>
-    <t>I'm fine.</t>
-  </si>
-  <si>
-    <t>choice</t>
-  </si>
-  <si>
-    <t>choice1</t>
-  </si>
-  <si>
-    <t>choice2</t>
   </si>
 </sst>
 </file>
@@ -1069,24 +1033,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.0092592592593" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
     <col min="7" max="7" width="13.8240740740741" customWidth="1"/>
     <col min="8" max="8" width="18.1296296296296" customWidth="1"/>
     <col min="9" max="9" width="21.9444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="87" spans="1:11">
+    <row r="1" ht="104.4" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,8 +1088,8 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1142,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -1150,32 +1113,32 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <f>IF(E2&lt;&gt;"",E2,J2)</f>
+        <f t="shared" ref="J3:J9" si="0">IF(E2&lt;&gt;"",E2,J2)</f>
         <v>1</v>
       </c>
       <c r="K3">
-        <f>IF(F2&lt;&gt;"",F2,K2)</f>
+        <f t="shared" ref="K3:K9" si="1">IF(F2&lt;&gt;"",F2,K2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1183,8 +1146,8 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1199,35 +1162,35 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J9" si="0">IF(E3&lt;&gt;"",E3,J3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K9" si="1">IF(F3&lt;&gt;"",F3,K3)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -1242,8 +1205,8 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1262,13 +1225,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1286,21 +1249,19 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H8"/>
       <c r="J8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1314,8 +1275,8 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1323,9 +1284,7 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
+      <c r="H9"/>
       <c r="J9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1335,21 +1294,247 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+      <c r="C30" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -85,7 +85,37 @@
     <t>moveTo(-540,y)</t>
   </si>
   <si>
+    <t>c_夜空2</t>
+  </si>
+  <si>
+    <t>c_夜空5</t>
+  </si>
+  <si>
     <t>英语</t>
+  </si>
+  <si>
+    <t>c_月01</t>
+  </si>
+  <si>
+    <t>c_月03</t>
+  </si>
+  <si>
+    <t>c_月04</t>
+  </si>
+  <si>
+    <t>c_月05</t>
+  </si>
+  <si>
+    <t>c_水面</t>
+  </si>
+  <si>
+    <t>c_青空</t>
+  </si>
+  <si>
+    <t>c_青空2</t>
+  </si>
+  <si>
+    <t>c_青空3</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1066,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1124,6 +1154,9 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
@@ -1166,7 +1199,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
@@ -1186,6 +1219,9 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
@@ -1211,12 +1247,15 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
@@ -1233,12 +1272,15 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>c_夜空2</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
@@ -1256,15 +1298,18 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8"/>
-      <c r="J8">
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>c_夜空5</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
@@ -1281,20 +1326,23 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9"/>
-      <c r="J9">
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>c_月01</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1304,8 +1352,11 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1315,8 +1366,11 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1326,8 +1380,11 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1337,8 +1394,11 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1348,8 +1408,11 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1359,6 +1422,9 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
@@ -1426,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1523,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>appearAt(0,-1)</t>
+  </si>
+  <si>
+    <t>[Name]</t>
   </si>
   <si>
     <t>Bella</t>
@@ -1065,8 +1068,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1149,10 +1152,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1164,7 +1167,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J9" si="0">IF(E2&lt;&gt;"",E2,J2)</f>
@@ -1195,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -1214,10 +1217,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1226,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -1248,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1270,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1298,10 +1301,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1327,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1364,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1381,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1392,10 +1395,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1409,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1420,10 +1423,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1439,7 +1442,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1450,18 +1453,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1472,18 +1475,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1492,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1508,7 +1511,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1519,16 +1522,16 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1544,16 +1547,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1569,13 +1572,13 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1589,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3">
